--- a/files/excelFilesforFigures/Figure11.xlsx
+++ b/files/excelFilesforFigures/Figure11.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62116BDF-B54F-4AFB-BD1D-073A8BA435DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5680E6-B474-40CF-AC1A-2B8D35844A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,49 +203,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1339</c:v>
+                  <c:v>8813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1279</c:v>
+                  <c:v>8201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1294</c:v>
+                  <c:v>8916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1375</c:v>
+                  <c:v>8433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1292</c:v>
+                  <c:v>8421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1367</c:v>
+                  <c:v>8885</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1377</c:v>
+                  <c:v>8613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1293</c:v>
+                  <c:v>8222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1292</c:v>
+                  <c:v>8457</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1294</c:v>
+                  <c:v>8096</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1333</c:v>
+                  <c:v>8080</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1345</c:v>
+                  <c:v>8219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1366</c:v>
+                  <c:v>7824</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1305</c:v>
+                  <c:v>8405</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1303</c:v>
+                  <c:v>7866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,49 +370,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.99</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.66</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1724,7 +1724,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="A3" sqref="A3:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,13 +1753,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-243</v>
+        <v>1191</v>
       </c>
       <c r="C3" s="1">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D3">
-        <v>1339</v>
+        <v>8813</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,13 +1767,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-9</v>
+        <v>2647</v>
       </c>
       <c r="C4" s="1">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="D4">
-        <v>1279</v>
+        <v>8201</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1781,13 +1781,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>194</v>
+        <v>4632</v>
       </c>
       <c r="C5" s="1">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
-        <v>1294</v>
+        <v>8916</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,13 +1795,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>268</v>
+        <v>5886</v>
       </c>
       <c r="C6" s="1">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="D6">
-        <v>1375</v>
+        <v>8433</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,13 +1809,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>298</v>
+        <v>6414</v>
       </c>
       <c r="C7" s="1">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="D7">
-        <v>1292</v>
+        <v>8421</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1823,13 +1823,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>341</v>
+        <v>7076</v>
       </c>
       <c r="C8" s="1">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="D8">
-        <v>1367</v>
+        <v>8885</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1837,13 +1837,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>363</v>
+        <v>7373</v>
       </c>
       <c r="C9" s="1">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
       <c r="D9">
-        <v>1377</v>
+        <v>8613</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1851,13 +1851,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>363</v>
+        <v>7581</v>
       </c>
       <c r="C10" s="1">
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="D10">
-        <v>1293</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1865,13 +1865,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>373</v>
+        <v>7443</v>
       </c>
       <c r="C11" s="1">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="D11">
-        <v>1292</v>
+        <v>8457</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1879,13 +1879,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>385</v>
+        <v>7835</v>
       </c>
       <c r="C12" s="1">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D12">
-        <v>1294</v>
+        <v>8096</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1893,13 +1893,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>403</v>
+        <v>7926</v>
       </c>
       <c r="C13" s="1">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="D13">
-        <v>1333</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,13 +1907,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>405</v>
+        <v>8012</v>
       </c>
       <c r="C14" s="1">
         <v>0.68</v>
       </c>
       <c r="D14">
-        <v>1345</v>
+        <v>8219</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1921,13 +1921,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>402</v>
+        <v>8020</v>
       </c>
       <c r="C15" s="1">
-        <v>0.66</v>
+        <v>0.69</v>
       </c>
       <c r="D15">
-        <v>1366</v>
+        <v>7824</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1935,13 +1935,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>410</v>
+        <v>8759</v>
       </c>
       <c r="C16" s="1">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="D16">
-        <v>1305</v>
+        <v>8405</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1949,13 +1949,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>408</v>
+        <v>8391</v>
       </c>
       <c r="C17" s="1">
-        <v>0.62</v>
+        <v>0.69</v>
       </c>
       <c r="D17">
-        <v>1303</v>
+        <v>7866</v>
       </c>
     </row>
   </sheetData>

--- a/files/excelFilesforFigures/Figure11.xlsx
+++ b/files/excelFilesforFigures/Figure11.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5680E6-B474-40CF-AC1A-2B8D35844A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7C929A-ADD0-41A7-A1D9-230C6304BF74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>LUBF</t>
   </si>
   <si>
-    <t>TPAT</t>
+    <t>FTS</t>
   </si>
 </sst>
 </file>
@@ -108,10 +108,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12378070190890568"/>
-          <c:y val="5.2101825689743135E-2"/>
-          <c:w val="0.74598061148396722"/>
-          <c:h val="0.80510113050146048"/>
+          <c:x val="0.11853314692231674"/>
+          <c:y val="6.1935475480758548E-2"/>
+          <c:w val="0.76856672057562359"/>
+          <c:h val="0.84059158134243461"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -119,22 +119,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$D$2</c:f>
+              <c:f>Feuil1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TPAT</c:v>
+                  <c:v>LUBF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -144,10 +144,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$3:$A$17</c:f>
+              <c:f>Feuil1!$A$3:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -192,67 +192,85 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$3:$D$17</c:f>
+              <c:f>Feuil1!$B$3:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>8813</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8201</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8916</c:v>
+                  <c:v>2175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8433</c:v>
+                  <c:v>2854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8421</c:v>
+                  <c:v>2786</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8885</c:v>
+                  <c:v>2723</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8613</c:v>
+                  <c:v>2934</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8222</c:v>
+                  <c:v>3314</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8457</c:v>
+                  <c:v>3022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8096</c:v>
+                  <c:v>3302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8080</c:v>
+                  <c:v>3328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8219</c:v>
+                  <c:v>3179</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7824</c:v>
+                  <c:v>3472</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8405</c:v>
+                  <c:v>3444</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7866</c:v>
+                  <c:v>3781</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3519</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3513</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A401-4FBE-A3E4-F26447B35342}"/>
+              <c16:uniqueId val="{00000000-24CC-48D2-A666-7ABA3C710C4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -265,15 +283,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1239570336"/>
-        <c:axId val="1160487456"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1188160128"/>
+        <c:axId val="1185336880"/>
       </c:barChart>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Feuil1!$C$2</c:f>
@@ -288,7 +307,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -299,11 +318,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -311,10 +330,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$3:$A$17</c:f>
+              <c:f>Feuil1!$A$3:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -359,16 +378,25 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$3:$C$17</c:f>
+              <c:f>Feuil1!$C$3:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.98</c:v>
                 </c:pt>
@@ -413,6 +441,15 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,7 +457,178 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A401-4FBE-A3E4-F26447B35342}"/>
+              <c16:uniqueId val="{00000001-24CC-48D2-A666-7ABA3C710C4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FTS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$3:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E84-4319-9E54-8D7A9A4829CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -434,11 +642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1239586736"/>
-        <c:axId val="1160479136"/>
+        <c:axId val="1130139264"/>
+        <c:axId val="1185338128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1239570336"/>
+        <c:axId val="1188160128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +659,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -464,7 +672,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="600">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>ARF (Arrival Rate Factor)</a:t>
                 </a:r>
               </a:p>
@@ -483,7 +694,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -521,7 +732,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -536,7 +747,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1160487456"/>
+        <c:crossAx val="1185336880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -544,7 +755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1160487456"/>
+        <c:axId val="1185336880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -571,7 +782,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -584,16 +795,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>TPAT (Total Payment of All Tenants)</a:t>
+                  <a:rPr lang="fr-FR" sz="600">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>LUBF</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> in </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>cents </a:t>
+                  <a:rPr lang="fr-FR" sz="600" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (Long-term Unit Benefit Factor (cents/second)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -611,7 +824,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -643,7 +856,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -658,12 +871,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1239570336"/>
+        <c:crossAx val="1188160128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1160479136"/>
+        <c:axId val="1185338128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -677,7 +890,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -690,12 +903,34 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>SSR (SLO Satisfaction Rate)</a:t>
+                  <a:rPr lang="fr-FR" sz="600">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>SSR</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="600" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (SLO Satisfaction Rate) / FTS (Fairness between the Tenants' Satisfcaction)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="600">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.94637793681073445"/>
+              <c:y val="0.18577352750027057"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -709,7 +944,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -741,7 +976,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -756,12 +991,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1239586736"/>
+        <c:crossAx val="1130139264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1239586736"/>
+        <c:axId val="1130139264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +1006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1160479136"/>
+        <c:crossAx val="1185338128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -792,10 +1027,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.56118092620972715"/>
-          <c:y val="7.1057640954645659E-2"/>
-          <c:w val="0.27137416547763743"/>
-          <c:h val="6.2157440752354839E-2"/>
+          <c:x val="0.62882292320255684"/>
+          <c:y val="8.0532459039889634E-2"/>
+          <c:w val="0.25951431660194951"/>
+          <c:h val="9.0754884308403436E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -811,7 +1046,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -858,10 +1093,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="650">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="fr-FR"/>
     </a:p>
@@ -1421,27 +1653,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466727</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
+        <xdr:cNvPr id="15" name="Graphique 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF63355-5A4C-4B6F-83FB-7A30284F7856}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0499D058-0E51-480E-83DC-3BBF8993BDD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1721,23 +1955,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D17"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1748,220 +1979,303 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1191</v>
+        <v>778</v>
       </c>
       <c r="C3" s="1">
         <v>0.98</v>
       </c>
-      <c r="D3">
-        <v>8813</v>
-      </c>
+      <c r="D3" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2647</v>
+        <v>2022</v>
       </c>
       <c r="C4" s="1">
         <v>0.96</v>
       </c>
-      <c r="D4">
-        <v>8201</v>
-      </c>
+      <c r="D4" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4632</v>
+        <v>2175</v>
       </c>
       <c r="C5" s="1">
         <v>0.8</v>
       </c>
-      <c r="D5">
-        <v>8916</v>
-      </c>
+      <c r="D5" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5886</v>
+        <v>2854</v>
       </c>
       <c r="C6" s="1">
         <v>0.78</v>
       </c>
-      <c r="D6">
-        <v>8433</v>
-      </c>
+      <c r="D6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6414</v>
+        <v>2786</v>
       </c>
       <c r="C7" s="1">
         <v>0.76</v>
       </c>
-      <c r="D7">
-        <v>8421</v>
-      </c>
+      <c r="D7" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7076</v>
+        <v>2723</v>
       </c>
       <c r="C8" s="1">
         <v>0.74</v>
       </c>
-      <c r="D8">
-        <v>8885</v>
-      </c>
+      <c r="D8" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7373</v>
+        <v>2934</v>
       </c>
       <c r="C9" s="1">
         <v>0.72</v>
       </c>
-      <c r="D9">
-        <v>8613</v>
-      </c>
+      <c r="D9" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7581</v>
+        <v>3314</v>
       </c>
       <c r="C10" s="1">
         <v>0.72</v>
       </c>
-      <c r="D10">
-        <v>8222</v>
-      </c>
+      <c r="D10" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7443</v>
+        <v>3022</v>
       </c>
       <c r="C11" s="1">
         <v>0.72</v>
       </c>
-      <c r="D11">
-        <v>8457</v>
-      </c>
+      <c r="D11" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7835</v>
+        <v>3302</v>
       </c>
       <c r="C12" s="1">
         <v>0.7</v>
       </c>
-      <c r="D12">
-        <v>8096</v>
-      </c>
+      <c r="D12" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7926</v>
+        <v>3328</v>
       </c>
       <c r="C13" s="1">
         <v>0.69</v>
       </c>
-      <c r="D13">
-        <v>8080</v>
-      </c>
+      <c r="D13" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8012</v>
+        <v>3179</v>
       </c>
       <c r="C14" s="1">
         <v>0.68</v>
       </c>
-      <c r="D14">
-        <v>8219</v>
-      </c>
+      <c r="D14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8020</v>
+        <v>3472</v>
       </c>
       <c r="C15" s="1">
         <v>0.69</v>
       </c>
-      <c r="D15">
-        <v>7824</v>
-      </c>
+      <c r="D15" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8759</v>
+        <v>3444</v>
       </c>
       <c r="C16" s="1">
         <v>0.67</v>
       </c>
-      <c r="D16">
-        <v>8405</v>
-      </c>
+      <c r="D16" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8391</v>
+        <v>3781</v>
       </c>
       <c r="C17" s="1">
         <v>0.69</v>
       </c>
-      <c r="D17">
-        <v>7866</v>
-      </c>
+      <c r="D17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3519</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3513</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3373</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C8">
-    <sortCondition ref="A3:A8"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
